--- a/Code/Results/Cases/Case_4_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.7105102997187</v>
+        <v>17.38200411459175</v>
       </c>
       <c r="C2">
-        <v>15.99581908497415</v>
+        <v>10.24960728346503</v>
       </c>
       <c r="D2">
-        <v>12.21087178172385</v>
+        <v>14.96765855275356</v>
       </c>
       <c r="E2">
-        <v>13.20801274789649</v>
+        <v>16.38295555995843</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.074333978605565</v>
+        <v>3.664042355815601</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.858968298978869</v>
+        <v>9.351577344150392</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.56243435642496</v>
+        <v>17.63364990059747</v>
       </c>
       <c r="O2">
-        <v>20.24363555081776</v>
+        <v>27.44723639764635</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.14051617312367</v>
+        <v>16.88755965899315</v>
       </c>
       <c r="C3">
-        <v>14.90892986233125</v>
+        <v>9.794781807820081</v>
       </c>
       <c r="D3">
-        <v>11.68201765044601</v>
+        <v>14.90779738029639</v>
       </c>
       <c r="E3">
-        <v>12.64592838430208</v>
+        <v>16.32357327415852</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.082190988817546</v>
+        <v>3.66695021510899</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.765223512556688</v>
+        <v>9.361047719588052</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.78783373154083</v>
+        <v>17.69977067761061</v>
       </c>
       <c r="O3">
-        <v>19.72273743340046</v>
+        <v>27.46627507701007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.12244630517295</v>
+        <v>16.57996326336046</v>
       </c>
       <c r="C4">
-        <v>14.20373831013402</v>
+        <v>9.505770003799208</v>
       </c>
       <c r="D4">
-        <v>11.35478321790009</v>
+        <v>14.87449218640738</v>
       </c>
       <c r="E4">
-        <v>12.29884780062698</v>
+        <v>16.29091949324159</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.087143979294162</v>
+        <v>3.668829198452866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.710648302319256</v>
+        <v>9.368352338649997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.92918123754922</v>
+        <v>17.74233256334899</v>
       </c>
       <c r="O4">
-        <v>19.4201911562542</v>
+        <v>27.48572465288974</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.69385966906317</v>
+        <v>16.4538065848335</v>
       </c>
       <c r="C5">
-        <v>13.90677004233431</v>
+        <v>9.385709511503421</v>
       </c>
       <c r="D5">
-        <v>11.22096706336787</v>
+        <v>14.86179682747303</v>
       </c>
       <c r="E5">
-        <v>12.15709193004712</v>
+        <v>16.27857884601919</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.089196128233183</v>
+        <v>3.669618505191222</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.689155530319667</v>
+        <v>9.371703537292724</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.98755095944989</v>
+        <v>17.76017213595967</v>
       </c>
       <c r="O5">
-        <v>19.30124841023834</v>
+        <v>27.49559575233886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.62186162472443</v>
+        <v>16.43281555319487</v>
       </c>
       <c r="C6">
-        <v>13.8568767138349</v>
+        <v>9.365640772596279</v>
       </c>
       <c r="D6">
-        <v>11.1987242173688</v>
+        <v>14.85974197729597</v>
       </c>
       <c r="E6">
-        <v>12.13353985252282</v>
+        <v>16.27658826744258</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.089538964328298</v>
+        <v>3.669750997140372</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.685631676600869</v>
+        <v>9.372282615901719</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.99729046244861</v>
+        <v>17.76316434097231</v>
       </c>
       <c r="O6">
-        <v>19.28176039908687</v>
+        <v>27.49735213120061</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.11672191374413</v>
+        <v>16.57826487361607</v>
       </c>
       <c r="C7">
-        <v>14.19977225668782</v>
+        <v>9.504159846367227</v>
       </c>
       <c r="D7">
-        <v>11.35298017309203</v>
+        <v>14.87431741088485</v>
       </c>
       <c r="E7">
-        <v>12.29693706947965</v>
+        <v>16.29074914093289</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.087171516803371</v>
+        <v>3.668839747631286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.710355423519835</v>
+        <v>9.368396017926328</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.92996528101365</v>
+        <v>17.74257114677303</v>
       </c>
       <c r="O7">
-        <v>19.41856945878159</v>
+        <v>27.48584991065317</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.18033116137578</v>
+        <v>17.21246647036027</v>
       </c>
       <c r="C8">
-        <v>15.62886181793563</v>
+        <v>10.09489869888206</v>
       </c>
       <c r="D8">
-        <v>12.02913791436715</v>
+        <v>14.94630832894101</v>
       </c>
       <c r="E8">
-        <v>13.01470981876353</v>
+        <v>16.36169593291265</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.077017216937376</v>
+        <v>3.665025620206651</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.826023803131885</v>
+        <v>9.35453348383874</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.63955626482702</v>
+        <v>17.65604174984166</v>
       </c>
       <c r="O8">
-        <v>20.06044505470751</v>
+        <v>27.45218710776402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.8034241679102</v>
+        <v>18.41624751906374</v>
       </c>
       <c r="C9">
-        <v>18.13502439905636</v>
+        <v>11.16983042394258</v>
       </c>
       <c r="D9">
-        <v>13.32906190862697</v>
+        <v>15.1143956948594</v>
       </c>
       <c r="E9">
-        <v>14.40037000445782</v>
+        <v>16.53059607494911</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.05805855399902</v>
+        <v>3.658284593031968</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.076677982021359</v>
+        <v>9.339172528663056</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.09219413938242</v>
+        <v>17.5018669084232</v>
       </c>
       <c r="O9">
-        <v>21.45602130702812</v>
+        <v>27.44796567230115</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.21526509411396</v>
+        <v>19.26641713910166</v>
       </c>
       <c r="C10">
-        <v>19.80151590045305</v>
+        <v>11.90177865072323</v>
       </c>
       <c r="D10">
-        <v>14.26204995051054</v>
+        <v>15.25361085017808</v>
       </c>
       <c r="E10">
-        <v>15.39857035215807</v>
+        <v>16.67218172949586</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.044608455026313</v>
+        <v>3.653776858214577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.275620061283912</v>
+        <v>9.335095454347838</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.7016677707721</v>
+        <v>17.39795076206115</v>
       </c>
       <c r="O10">
-        <v>22.56451009589587</v>
+        <v>27.48276515325113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.26014042379798</v>
+        <v>19.64391413757073</v>
       </c>
       <c r="C11">
-        <v>20.52308041446134</v>
+        <v>12.22109160911201</v>
       </c>
       <c r="D11">
-        <v>14.68092953414832</v>
+        <v>15.32019004410622</v>
       </c>
       <c r="E11">
-        <v>15.84757172478766</v>
+        <v>16.74022922917665</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.038568328916148</v>
+        <v>3.651821650412472</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.369418657147258</v>
+        <v>9.334804473752351</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.52610327124731</v>
+        <v>17.35268737988725</v>
       </c>
       <c r="O11">
-        <v>23.08694967894719</v>
+        <v>27.50685033937085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.6484638089638</v>
+        <v>19.78539802270125</v>
       </c>
       <c r="C12">
-        <v>20.79118860552905</v>
+        <v>12.33996941044319</v>
       </c>
       <c r="D12">
-        <v>14.83872186530762</v>
+        <v>15.34585359337868</v>
       </c>
       <c r="E12">
-        <v>16.01683646491277</v>
+        <v>16.76650512769332</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.036290031934819</v>
+        <v>3.651094893951785</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.405421782917814</v>
+        <v>9.334918834742643</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.45988563779034</v>
+        <v>17.3358346131796</v>
       </c>
       <c r="O12">
-        <v>23.28742615180412</v>
+        <v>27.51715755768818</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.56515538082811</v>
+        <v>19.75499416523218</v>
       </c>
       <c r="C13">
-        <v>20.73367296132914</v>
+        <v>12.31445871403573</v>
       </c>
       <c r="D13">
-        <v>14.80477552112104</v>
+        <v>15.34030667102722</v>
       </c>
       <c r="E13">
-        <v>15.98041636864725</v>
+        <v>16.76082381631134</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.036780344322</v>
+        <v>3.651250808624515</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.397646171418502</v>
+        <v>9.334884224105622</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.47413558786334</v>
+        <v>17.33945139275013</v>
       </c>
       <c r="O13">
-        <v>23.24413188706401</v>
+        <v>27.51488495520113</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.29223426950892</v>
+        <v>19.65558421590453</v>
       </c>
       <c r="C14">
-        <v>20.54523997745585</v>
+        <v>12.23091301391664</v>
       </c>
       <c r="D14">
-        <v>14.69392789041825</v>
+        <v>15.32229244550961</v>
       </c>
       <c r="E14">
-        <v>15.86151259111582</v>
+        <v>16.74238087873083</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.038380726359983</v>
+        <v>3.651761586832476</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.372370897976745</v>
+        <v>9.334809384109011</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.52065040608372</v>
+        <v>17.35129513842055</v>
       </c>
       <c r="O14">
-        <v>23.10338986171839</v>
+        <v>27.50767454418614</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.12411052914032</v>
+        <v>19.59449801818765</v>
       </c>
       <c r="C15">
-        <v>20.4291546546532</v>
+        <v>12.17947127384505</v>
       </c>
       <c r="D15">
-        <v>14.62592216648747</v>
+        <v>15.31131652107026</v>
       </c>
       <c r="E15">
-        <v>15.78858088235226</v>
+        <v>16.73114969831069</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.039362102064477</v>
+        <v>3.652076227044057</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.3569523792691</v>
+        <v>9.334792774576533</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.54917549336626</v>
+        <v>17.35858717541564</v>
       </c>
       <c r="O15">
-        <v>23.0175262552722</v>
+        <v>27.50341246765193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.14594219535161</v>
+        <v>19.24154877626026</v>
       </c>
       <c r="C16">
-        <v>19.75363494878129</v>
+        <v>11.88062929418561</v>
       </c>
       <c r="D16">
-        <v>14.2345603905027</v>
+        <v>15.24932379844403</v>
       </c>
       <c r="E16">
-        <v>15.36912141887079</v>
+        <v>16.66780659146491</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.045004577062848</v>
+        <v>3.653906548346401</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.269557200983311</v>
+        <v>9.335145911984466</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71318033860712</v>
+        <v>17.40094913356361</v>
       </c>
       <c r="O16">
-        <v>22.53073497054301</v>
+        <v>27.48135723694165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.53259348101303</v>
+        <v>19.02255590938442</v>
       </c>
       <c r="C17">
-        <v>19.32995181445361</v>
+        <v>11.69374448445209</v>
       </c>
       <c r="D17">
-        <v>13.99302263732008</v>
+        <v>15.21211456210982</v>
       </c>
       <c r="E17">
-        <v>15.1104630183895</v>
+        <v>16.62986902572484</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.048484561389084</v>
+        <v>3.655053765710897</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.2167935923704</v>
+        <v>9.335762861413519</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.81430195513696</v>
+        <v>17.42745031168444</v>
       </c>
       <c r="O17">
-        <v>22.23677238112651</v>
+        <v>27.46994147643008</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.17487945036641</v>
+        <v>18.89573368315222</v>
       </c>
       <c r="C18">
-        <v>19.08281428076656</v>
+        <v>11.58497178345837</v>
       </c>
       <c r="D18">
-        <v>13.85357514957569</v>
+        <v>15.19101965689671</v>
       </c>
       <c r="E18">
-        <v>14.96121098601875</v>
+        <v>16.6083918987987</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.050493685705591</v>
+        <v>3.655722597350956</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.186755138759497</v>
+        <v>9.336264921817177</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.87266315403456</v>
+        <v>17.44288222553967</v>
       </c>
       <c r="O18">
-        <v>22.06940161077262</v>
+        <v>27.46415251061293</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.05291157113697</v>
+        <v>18.85264993932381</v>
       </c>
       <c r="C19">
-        <v>18.99854235357367</v>
+        <v>11.54792562686892</v>
       </c>
       <c r="D19">
-        <v>13.80627247012166</v>
+        <v>15.18393045683039</v>
       </c>
       <c r="E19">
-        <v>14.91059603580355</v>
+        <v>16.60117957799621</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051175300412063</v>
+        <v>3.655950597387954</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.176637609374055</v>
+        <v>9.336460201729187</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.89245844245404</v>
+        <v>17.44813973204639</v>
       </c>
       <c r="O19">
-        <v>22.01302580980384</v>
+        <v>27.46232591882142</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.59839475990315</v>
+        <v>19.04595845115325</v>
       </c>
       <c r="C20">
-        <v>19.37540943379696</v>
+        <v>11.71377190915281</v>
       </c>
       <c r="D20">
-        <v>14.01878901356058</v>
+        <v>15.21604390164189</v>
       </c>
       <c r="E20">
-        <v>15.13804749251445</v>
+        <v>16.6338720973156</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.048113347826219</v>
+        <v>3.654930713370595</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.22237825107015</v>
+        <v>9.335681952649029</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.80351707234355</v>
+        <v>17.42460965091037</v>
       </c>
       <c r="O20">
-        <v>22.26788824170112</v>
+        <v>27.47107627754616</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.37259582176209</v>
+        <v>19.68482413442192</v>
       </c>
       <c r="C21">
-        <v>20.60072560200485</v>
+        <v>12.25550829421391</v>
       </c>
       <c r="D21">
-        <v>14.72650912552663</v>
+        <v>15.32757153808364</v>
       </c>
       <c r="E21">
-        <v>15.89645830774843</v>
+        <v>16.74778436391118</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.037910431509647</v>
+        <v>3.651611189368559</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.37978164195813</v>
+        <v>9.334825275165525</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.50698097702728</v>
+        <v>17.34780855128684</v>
       </c>
       <c r="O21">
-        <v>23.14465724014326</v>
+        <v>27.50976021971193</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.48939668824607</v>
+        <v>20.09376064839457</v>
       </c>
       <c r="C22">
-        <v>21.37168684649183</v>
+        <v>12.59765213812335</v>
       </c>
       <c r="D22">
-        <v>15.18422143162982</v>
+        <v>15.40308480920108</v>
       </c>
       <c r="E22">
-        <v>16.3876861848241</v>
+        <v>16.82518454367096</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.031293263016529</v>
+        <v>3.649521147249028</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.485479779563054</v>
+        <v>9.335574020364575</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.3147038978735</v>
+        <v>17.29928972074494</v>
       </c>
       <c r="O22">
-        <v>23.73309391843017</v>
+        <v>27.54195821148472</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.89719014708344</v>
+        <v>19.87633192775171</v>
       </c>
       <c r="C23">
-        <v>20.96289951929598</v>
+        <v>12.41615542407803</v>
       </c>
       <c r="D23">
-        <v>14.94037667577629</v>
+        <v>15.36254733976624</v>
       </c>
       <c r="E23">
-        <v>16.12591745384147</v>
+        <v>16.78360988234324</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.034821125348846</v>
+        <v>3.650629397146214</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.428804126068512</v>
+        <v>9.335054787454716</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.41719812705138</v>
+        <v>17.32503229636335</v>
       </c>
       <c r="O23">
-        <v>23.41760870519103</v>
+        <v>27.52414119308541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.56866187386641</v>
+        <v>19.03538101808908</v>
       </c>
       <c r="C24">
-        <v>19.35486913064215</v>
+        <v>11.70472164767679</v>
       </c>
       <c r="D24">
-        <v>14.00714185185285</v>
+        <v>15.21426652038794</v>
       </c>
       <c r="E24">
-        <v>15.12557824931217</v>
+        <v>16.6320612681174</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.048281147033739</v>
+        <v>3.654986316417726</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.219852505399057</v>
+        <v>9.335718072450824</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.80839221425838</v>
+        <v>17.42589330290458</v>
       </c>
       <c r="O24">
-        <v>22.25381567864513</v>
+        <v>27.47056082266676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.86781958702569</v>
+        <v>18.09594073604566</v>
       </c>
       <c r="C25">
-        <v>17.48817950406191</v>
+        <v>10.88875384432977</v>
       </c>
       <c r="D25">
-        <v>12.98092346349344</v>
+        <v>15.06610900345792</v>
       </c>
       <c r="E25">
-        <v>14.02863162704997</v>
+        <v>16.4817799570047</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.063095329821544</v>
+        <v>3.66002971029148</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.006294400901881</v>
+        <v>9.34206187315079</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.23808962901592</v>
+        <v>17.5419252131518</v>
       </c>
       <c r="O25">
-        <v>21.06386888672203</v>
+        <v>27.44246378136107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.38200411459175</v>
+        <v>22.71051029971868</v>
       </c>
       <c r="C2">
-        <v>10.24960728346503</v>
+        <v>15.99581908497428</v>
       </c>
       <c r="D2">
-        <v>14.96765855275356</v>
+        <v>12.21087178172396</v>
       </c>
       <c r="E2">
-        <v>16.38295555995843</v>
+        <v>13.2080127478965</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.664042355815601</v>
+        <v>2.074333978605566</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.351577344150392</v>
+        <v>5.858968298978809</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.63364990059747</v>
+        <v>11.56243435642503</v>
       </c>
       <c r="O2">
-        <v>27.44723639764635</v>
+        <v>20.24363555081781</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.88755965899315</v>
+        <v>21.14051617312369</v>
       </c>
       <c r="C3">
-        <v>9.794781807820081</v>
+        <v>14.90892986233122</v>
       </c>
       <c r="D3">
-        <v>14.90779738029639</v>
+        <v>11.68201765044606</v>
       </c>
       <c r="E3">
-        <v>16.32357327415852</v>
+        <v>12.64592838430212</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.66695021510899</v>
+        <v>2.082190988817678</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.361047719588052</v>
+        <v>5.765223512556671</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.69977067761061</v>
+        <v>11.78783373154083</v>
       </c>
       <c r="O3">
-        <v>27.46627507701007</v>
+        <v>19.7227374334005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.57996326336046</v>
+        <v>20.12244630517297</v>
       </c>
       <c r="C4">
-        <v>9.505770003799208</v>
+        <v>14.20373831013408</v>
       </c>
       <c r="D4">
-        <v>14.87449218640738</v>
+        <v>11.35478321790004</v>
       </c>
       <c r="E4">
-        <v>16.29091949324159</v>
+        <v>12.29884780062696</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.668829198452866</v>
+        <v>2.087143979294295</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.368352338649997</v>
+        <v>5.710648302319281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.74233256334899</v>
+        <v>11.92918123754922</v>
       </c>
       <c r="O4">
-        <v>27.48572465288974</v>
+        <v>19.42019115625418</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.4538065848335</v>
+        <v>19.69385966906313</v>
       </c>
       <c r="C5">
-        <v>9.385709511503421</v>
+        <v>13.90677004233432</v>
       </c>
       <c r="D5">
-        <v>14.86179682747303</v>
+        <v>11.22096706336797</v>
       </c>
       <c r="E5">
-        <v>16.27857884601919</v>
+        <v>12.15709193004714</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.669618505191222</v>
+        <v>2.089196128233185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.371703537292724</v>
+        <v>5.689155530319668</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.76017213595967</v>
+        <v>11.98755095944988</v>
       </c>
       <c r="O5">
-        <v>27.49559575233886</v>
+        <v>19.30124841023844</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.43281555319487</v>
+        <v>19.6218616247244</v>
       </c>
       <c r="C6">
-        <v>9.365640772596279</v>
+        <v>13.85687671383491</v>
       </c>
       <c r="D6">
-        <v>14.85974197729597</v>
+        <v>11.1987242173689</v>
       </c>
       <c r="E6">
-        <v>16.27658826744258</v>
+        <v>12.13353985252288</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.669750997140372</v>
+        <v>2.089538964328163</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.372282615901719</v>
+        <v>5.685631676600914</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.76316434097231</v>
+        <v>11.99729046244867</v>
       </c>
       <c r="O6">
-        <v>27.49735213120061</v>
+        <v>19.28176039908706</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.57826487361607</v>
+        <v>20.11672191374411</v>
       </c>
       <c r="C7">
-        <v>9.504159846367227</v>
+        <v>14.19977225668772</v>
       </c>
       <c r="D7">
-        <v>14.87431741088485</v>
+        <v>11.35298017309199</v>
       </c>
       <c r="E7">
-        <v>16.29074914093289</v>
+        <v>12.29693706947967</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.668839747631286</v>
+        <v>2.087171516803237</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.368396017926328</v>
+        <v>5.71035542351986</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.74257114677303</v>
+        <v>11.92996528101375</v>
       </c>
       <c r="O7">
-        <v>27.48584991065317</v>
+        <v>19.41856945878173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.21246647036027</v>
+        <v>22.18033116137576</v>
       </c>
       <c r="C8">
-        <v>10.09489869888206</v>
+        <v>15.62886181793566</v>
       </c>
       <c r="D8">
-        <v>14.94630832894101</v>
+        <v>12.02913791436718</v>
       </c>
       <c r="E8">
-        <v>16.36169593291265</v>
+        <v>13.01470981876357</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.665025620206651</v>
+        <v>2.077017216937374</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.35453348383874</v>
+        <v>5.826023803131906</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.65604174984166</v>
+        <v>11.63955626482702</v>
       </c>
       <c r="O8">
-        <v>27.45218710776402</v>
+        <v>20.06044505470749</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.41624751906374</v>
+        <v>25.80342416791029</v>
       </c>
       <c r="C9">
-        <v>11.16983042394258</v>
+        <v>18.1350243990565</v>
       </c>
       <c r="D9">
-        <v>15.1143956948594</v>
+        <v>13.32906190862697</v>
       </c>
       <c r="E9">
-        <v>16.53059607494911</v>
+        <v>14.40037000445777</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.658284593031968</v>
+        <v>2.058058553999285</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.339172528663056</v>
+        <v>6.076677982021311</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.5018669084232</v>
+        <v>11.09219413938235</v>
       </c>
       <c r="O9">
-        <v>27.44796567230115</v>
+        <v>21.45602130702801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.26641713910166</v>
+        <v>28.21526509411392</v>
       </c>
       <c r="C10">
-        <v>11.90177865072323</v>
+        <v>19.80151590045298</v>
       </c>
       <c r="D10">
-        <v>15.25361085017808</v>
+        <v>14.26204995051051</v>
       </c>
       <c r="E10">
-        <v>16.67218172949586</v>
+        <v>15.39857035215807</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.653776858214577</v>
+        <v>2.044608455026045</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.335095454347838</v>
+        <v>6.275620061283951</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.39795076206115</v>
+        <v>10.7016677707721</v>
       </c>
       <c r="O10">
-        <v>27.48276515325113</v>
+        <v>22.5645100958959</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.64391413757073</v>
+        <v>29.26014042379797</v>
       </c>
       <c r="C11">
-        <v>12.22109160911201</v>
+        <v>20.52308041446136</v>
       </c>
       <c r="D11">
-        <v>15.32019004410622</v>
+        <v>14.68092953414831</v>
       </c>
       <c r="E11">
-        <v>16.74022922917665</v>
+        <v>15.84757172478766</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.651821650412472</v>
+        <v>2.038568328916148</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.334804473752351</v>
+        <v>6.369418657147261</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.35268737988725</v>
+        <v>10.52610327124731</v>
       </c>
       <c r="O11">
-        <v>27.50685033937085</v>
+        <v>23.0869496789472</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.78539802270125</v>
+        <v>29.64846380896385</v>
       </c>
       <c r="C12">
-        <v>12.33996941044319</v>
+        <v>20.79118860552903</v>
       </c>
       <c r="D12">
-        <v>15.34585359337868</v>
+        <v>14.83872186530764</v>
       </c>
       <c r="E12">
-        <v>16.76650512769332</v>
+        <v>16.0168364649128</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.651094893951785</v>
+        <v>2.036290031934819</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.334918834742643</v>
+        <v>6.405421782917814</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.3358346131796</v>
+        <v>10.45988563779027</v>
       </c>
       <c r="O12">
-        <v>27.51715755768818</v>
+        <v>23.28742615180411</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.75499416523218</v>
+        <v>29.56515538082807</v>
       </c>
       <c r="C13">
-        <v>12.31445871403573</v>
+        <v>20.73367296132915</v>
       </c>
       <c r="D13">
-        <v>15.34030667102722</v>
+        <v>14.80477552112101</v>
       </c>
       <c r="E13">
-        <v>16.76082381631134</v>
+        <v>15.98041636864723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.651250808624515</v>
+        <v>2.036780344321867</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.334884224105622</v>
+        <v>6.397646171418467</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.33945139275013</v>
+        <v>10.47413558786334</v>
       </c>
       <c r="O13">
-        <v>27.51488495520113</v>
+        <v>23.24413188706401</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.65558421590453</v>
+        <v>29.29223426950895</v>
       </c>
       <c r="C14">
-        <v>12.23091301391664</v>
+        <v>20.54523997745574</v>
       </c>
       <c r="D14">
-        <v>15.32229244550961</v>
+        <v>14.69392789041825</v>
       </c>
       <c r="E14">
-        <v>16.74238087873083</v>
+        <v>15.8615125911158</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.651761586832476</v>
+        <v>2.038380726359848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.334809384109011</v>
+        <v>6.372370897976737</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.35129513842055</v>
+        <v>10.52065040608372</v>
       </c>
       <c r="O14">
-        <v>27.50767454418614</v>
+        <v>23.1033898617184</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.59449801818765</v>
+        <v>29.12411052914028</v>
       </c>
       <c r="C15">
-        <v>12.17947127384505</v>
+        <v>20.42915465465315</v>
       </c>
       <c r="D15">
-        <v>15.31131652107026</v>
+        <v>14.62592216648748</v>
       </c>
       <c r="E15">
-        <v>16.73114969831069</v>
+        <v>15.78858088235223</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.652076227044057</v>
+        <v>2.039362102064745</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.334792774576533</v>
+        <v>6.356952379269035</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.35858717541564</v>
+        <v>10.5491754933663</v>
       </c>
       <c r="O15">
-        <v>27.50341246765193</v>
+        <v>23.01752625527223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.24154877626026</v>
+        <v>28.1459421953515</v>
       </c>
       <c r="C16">
-        <v>11.88062929418561</v>
+        <v>19.75363494878119</v>
       </c>
       <c r="D16">
-        <v>15.24932379844403</v>
+        <v>14.23456039050273</v>
       </c>
       <c r="E16">
-        <v>16.66780659146491</v>
+        <v>15.36912141887076</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.653906548346401</v>
+        <v>2.045004577062985</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.335145911984466</v>
+        <v>6.269557200983297</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.40094913356361</v>
+        <v>10.71318033860714</v>
       </c>
       <c r="O16">
-        <v>27.48135723694165</v>
+        <v>22.53073497054313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.02255590938442</v>
+        <v>27.53259348101299</v>
       </c>
       <c r="C17">
-        <v>11.69374448445209</v>
+        <v>19.32995181445359</v>
       </c>
       <c r="D17">
-        <v>15.21211456210982</v>
+        <v>13.99302263732007</v>
       </c>
       <c r="E17">
-        <v>16.62986902572484</v>
+        <v>15.11046301838948</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.655053765710897</v>
+        <v>2.048484561389219</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.335762861413519</v>
+        <v>6.216793592370432</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.42745031168444</v>
+        <v>10.81430195513707</v>
       </c>
       <c r="O17">
-        <v>27.46994147643008</v>
+        <v>22.23677238112653</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.89573368315222</v>
+        <v>27.17487945036645</v>
       </c>
       <c r="C18">
-        <v>11.58497178345837</v>
+        <v>19.08281428076663</v>
       </c>
       <c r="D18">
-        <v>15.19101965689671</v>
+        <v>13.85357514957575</v>
       </c>
       <c r="E18">
-        <v>16.6083918987987</v>
+        <v>14.96121098601878</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.655722597350956</v>
+        <v>2.050493685705456</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.336264921817177</v>
+        <v>6.186755138759456</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.44288222553967</v>
+        <v>10.87266315403453</v>
       </c>
       <c r="O18">
-        <v>27.46415251061293</v>
+        <v>22.06940161077256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.85264993932381</v>
+        <v>27.05291157113689</v>
       </c>
       <c r="C19">
-        <v>11.54792562686892</v>
+        <v>18.99854235357378</v>
       </c>
       <c r="D19">
-        <v>15.18393045683039</v>
+        <v>13.8062724701217</v>
       </c>
       <c r="E19">
-        <v>16.60117957799621</v>
+        <v>14.91059603580359</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.655950597387954</v>
+        <v>2.051175300412331</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.336460201729187</v>
+        <v>6.176637609374096</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.44813973204639</v>
+        <v>10.89245844245411</v>
       </c>
       <c r="O19">
-        <v>27.46232591882142</v>
+        <v>22.01302580980388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.04595845115325</v>
+        <v>27.59839475990314</v>
       </c>
       <c r="C20">
-        <v>11.71377190915281</v>
+        <v>19.37540943379706</v>
       </c>
       <c r="D20">
-        <v>15.21604390164189</v>
+        <v>14.01878901356057</v>
       </c>
       <c r="E20">
-        <v>16.6338720973156</v>
+        <v>15.13804749251445</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.654930713370595</v>
+        <v>2.048113347826353</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.335681952649029</v>
+        <v>6.222378251070164</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.42460965091037</v>
+        <v>10.80351707234355</v>
       </c>
       <c r="O20">
-        <v>27.47107627754616</v>
+        <v>22.26788824170108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.68482413442192</v>
+        <v>29.37259582176213</v>
       </c>
       <c r="C21">
-        <v>12.25550829421391</v>
+        <v>20.60072560200484</v>
       </c>
       <c r="D21">
-        <v>15.32757153808364</v>
+        <v>14.72650912552663</v>
       </c>
       <c r="E21">
-        <v>16.74778436391118</v>
+        <v>15.89645830774844</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.651611189368559</v>
+        <v>2.037910431509647</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.334825275165525</v>
+        <v>6.379781641958104</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.34780855128684</v>
+        <v>10.50698097702732</v>
       </c>
       <c r="O21">
-        <v>27.50976021971193</v>
+        <v>23.14465724014326</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.09376064839457</v>
+        <v>30.48939668824606</v>
       </c>
       <c r="C22">
-        <v>12.59765213812335</v>
+        <v>21.37168684649187</v>
       </c>
       <c r="D22">
-        <v>15.40308480920108</v>
+        <v>15.1842214316298</v>
       </c>
       <c r="E22">
-        <v>16.82518454367096</v>
+        <v>16.3876861848241</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.649521147249028</v>
+        <v>2.031293263016266</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.335574020364575</v>
+        <v>6.485479779563044</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.29928972074494</v>
+        <v>10.3147038978735</v>
       </c>
       <c r="O22">
-        <v>27.54195821148472</v>
+        <v>23.73309391843015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.87633192775171</v>
+        <v>29.89719014708346</v>
       </c>
       <c r="C23">
-        <v>12.41615542407803</v>
+        <v>20.96289951929597</v>
       </c>
       <c r="D23">
-        <v>15.36254733976624</v>
+        <v>14.94037667577626</v>
       </c>
       <c r="E23">
-        <v>16.78360988234324</v>
+        <v>16.12591745384145</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.650629397146214</v>
+        <v>2.034821125348715</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.335054787454716</v>
+        <v>6.428804126068523</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.32503229636335</v>
+        <v>10.4171981270513</v>
       </c>
       <c r="O23">
-        <v>27.52414119308541</v>
+        <v>23.41760870519105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.03538101808908</v>
+        <v>27.56866187386633</v>
       </c>
       <c r="C24">
-        <v>11.70472164767679</v>
+        <v>19.35486913064229</v>
       </c>
       <c r="D24">
-        <v>15.21426652038794</v>
+        <v>14.00714185185283</v>
       </c>
       <c r="E24">
-        <v>16.6320612681174</v>
+        <v>15.12557824931217</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.654986316417726</v>
+        <v>2.04828114703374</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.335718072450824</v>
+        <v>6.219852505399095</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.42589330290458</v>
+        <v>10.80839221425835</v>
       </c>
       <c r="O24">
-        <v>27.47056082266676</v>
+        <v>22.2538156786451</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.09594073604566</v>
+        <v>24.86781958702578</v>
       </c>
       <c r="C25">
-        <v>10.88875384432977</v>
+        <v>17.48817950406187</v>
       </c>
       <c r="D25">
-        <v>15.06610900345792</v>
+        <v>12.98092346349337</v>
       </c>
       <c r="E25">
-        <v>16.4817799570047</v>
+        <v>14.02863162704992</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.66002971029148</v>
+        <v>2.063095329821676</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.34206187315079</v>
+        <v>6.006294400901833</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.5419252131518</v>
+        <v>11.23808962901588</v>
       </c>
       <c r="O25">
-        <v>27.44246378136107</v>
+        <v>21.06386888672202</v>
       </c>
     </row>
   </sheetData>
